--- a/Files/merge[1.1, 1.3, 1.8] Tabel 1.3. Nilai pengeluaran VBH18-LK menurut barang jasa_15002_014_MUH YASIN_20181101_07-47.xlsx
+++ b/Files/merge[1.1, 1.3, 1.8] Tabel 1.3. Nilai pengeluaran VBH18-LK menurut barang jasa_15002_014_MUH YASIN_20181101_07-47.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="722">
   <si>
     <t>Tabel 1.1. Nilai Pengeluaran VBH18-BL dan VBH18-S menurut Barang Jasa</t>
   </si>
@@ -2183,6 +2183,18 @@
   </si>
   <si>
     <t>15002014</t>
+  </si>
+  <si>
+    <t>Keterangan :</t>
+  </si>
+  <si>
+    <t>Angka dikolom hijau boleh dirubah, cell yang dirubah tandai dengan warna kuning</t>
+  </si>
+  <si>
+    <t>Berisi rumus excel jangan di rubah</t>
+  </si>
+  <si>
+    <t>tandai cell yang dirubah dengan warna kuning</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2259,6 +2271,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,7 +2451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2561,6 +2591,24 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2869,10 +2917,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J11" sqref="J11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,11 +2928,11 @@
     <col min="1" max="1" width="47.28515625" style="1" customWidth="1"/>
     <col min="2" max="6" width="19.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2947,7 @@
         <v>17705166.666666668</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2964,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2995,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +3013,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2983,7 +3031,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +3045,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
         <v>17</v>
@@ -3015,7 +3063,7 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="13" t="s">
         <v>21</v>
@@ -3031,33 +3079,33 @@
       <c r="G9" s="32"/>
       <c r="H9" s="42"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="50" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3085,8 +3133,11 @@
         <f>LEFT(A11,3)</f>
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -3114,8 +3165,12 @@
         <f t="shared" ref="H12:H75" si="2">LEFT(A12,3)</f>
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="51"/>
+      <c r="K12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3143,8 +3198,12 @@
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="52"/>
+      <c r="K13" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -3172,8 +3231,12 @@
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="53"/>
+      <c r="K14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -3202,7 +3265,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -10792,10 +10855,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10803,10 +10866,10 @@
     <col min="1" max="1" width="48.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>88</v>
       </c>
@@ -10814,7 +10877,7 @@
       <c r="C1" s="27"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -10824,7 +10887,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -10834,7 +10897,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -10845,7 +10908,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -10859,7 +10922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -10873,7 +10936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
@@ -10882,7 +10945,7 @@
       </c>
       <c r="C7" s="39"/>
     </row>
-    <row r="8" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="40" t="s">
         <v>90</v>
@@ -10891,21 +10954,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -10920,8 +10983,11 @@
         <f>SUM(C10:C500)</f>
         <v>3023057.1428571427</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -10932,8 +10998,12 @@
         <f t="shared" ref="C11:C74" si="0">B11*30/7</f>
         <v>128571.42857142857</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="51"/>
+      <c r="G11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -10944,8 +11014,12 @@
         <f t="shared" si="0"/>
         <v>128571.42857142857</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="52"/>
+      <c r="G12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
@@ -10956,8 +11030,12 @@
         <f t="shared" si="0"/>
         <v>128571.42857142857</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="53"/>
+      <c r="G13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -10969,7 +11047,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -10981,7 +11059,7 @@
         <v>85714.28571428571</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -32946,12 +33024,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
@@ -32962,21 +33041,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
@@ -32993,8 +33072,9 @@
       <c r="I2" s="19"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="L2" t="s">
+        <v>718</v>
+      </c>
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -33012,8 +33092,10 @@
       <c r="I3" s="19"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="51"/>
+      <c r="M3" t="s">
+        <v>719</v>
+      </c>
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -33031,8 +33113,10 @@
       <c r="I4" s="19"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="L4" s="52"/>
+      <c r="M4" t="s">
+        <v>720</v>
+      </c>
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -33050,8 +33134,10 @@
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="L5" s="53"/>
+      <c r="M5" t="s">
+        <v>721</v>
+      </c>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -33139,23 +33225,23 @@
       <c r="I8" s="37">
         <v>8</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="56">
         <v>9</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="56">
         <v>10</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="56">
         <v>11</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="56">
         <v>12</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="56">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>B9&amp;C9</f>
         <v>15002014</v>
@@ -33262,9 +33348,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:N6"/>
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>

--- a/Files/merge[1.1, 1.3, 1.8] Tabel 1.3. Nilai pengeluaran VBH18-LK menurut barang jasa_15002_014_MUH YASIN_20181101_07-47.xlsx
+++ b/Files/merge[1.1, 1.3, 1.8] Tabel 1.3. Nilai pengeluaran VBH18-LK menurut barang jasa_15002_014_MUH YASIN_20181101_07-47.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="726">
   <si>
     <t>Tabel 1.1. Nilai Pengeluaran VBH18-BL dan VBH18-S menurut Barang Jasa</t>
   </si>
@@ -2195,6 +2195,18 @@
   </si>
   <si>
     <t>tandai cell yang dirubah dengan warna kuning</t>
+  </si>
+  <si>
+    <t>Perbaikan</t>
+  </si>
+  <si>
+    <t>Isian Tabungan, diisi jika Diskrepansi (kolom 13) &lt; 80%</t>
+  </si>
+  <si>
+    <t>Pengambilan Tabungan, diisi jika Diskrepansi (kolom 13)&gt;120%</t>
+  </si>
+  <si>
+    <t>Diskrepansi Setelah</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2607,6 +2619,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -33022,10 +33037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33038,9 +33053,12 @@
     <col min="6" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>146</v>
       </c>
@@ -33057,7 +33075,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -33077,7 +33095,7 @@
       </c>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="17" t="s">
         <v>3</v>
@@ -33098,7 +33116,7 @@
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
       <c r="C4" s="17" t="s">
         <v>9</v>
@@ -33119,7 +33137,7 @@
       </c>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -33140,7 +33158,7 @@
       </c>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>148</v>
       </c>
@@ -33170,8 +33188,15 @@
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
-    </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="O6" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="33" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="35"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -33199,8 +33224,15 @@
       <c r="N7" s="25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>1</v>
       </c>
@@ -33240,8 +33272,17 @@
       <c r="N8" s="56">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="57">
+        <v>14</v>
+      </c>
+      <c r="P8" s="57">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>B9&amp;C9</f>
         <v>15002014</v>
@@ -33299,7 +33340,7 @@
         <v>94.52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>717</v>
       </c>
@@ -33346,12 +33387,18 @@
         <f>(J10+K10-L10)/M10</f>
         <v>0.9451994441187328</v>
       </c>
+      <c r="Q10" s="47">
+        <f>(J10+K10-L10+O10)/(M10+P10)</f>
+        <v>0.9451994441187328</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:N6"/>
     <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
